--- a/Results/Calculation/lda-partial-ner.xlsx
+++ b/Results/Calculation/lda-partial-ner.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0.65</v>
+        <v>0.32</v>
       </c>
       <c r="G2">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.44</v>
       </c>
       <c r="I2">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="C3">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="G3">
         <v>0.93</v>
       </c>
       <c r="H3">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="I3">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="H4">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0.77</v>
+        <v>0.43</v>
       </c>
       <c r="G5">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H5">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
